--- a/example_data/EMA/label_corrected/ebilfumin-epar-product-information_en.xlsx
+++ b/example_data/EMA/label_corrected/ebilfumin-epar-product-information_en.xlsx
@@ -783,7 +783,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>populations - adult || populations - neonate || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult || populations - neonate</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -854,7 +854,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - pediatric || populations - adult</t>
+          <t>populations - pediatric || populations - adult || populations - adolescent</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - pediatric || populations - adult</t>
+          <t>populations - pediatric || populations - adult || populations - adolescent</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - pediatric</t>
+          <t>populations - pediatric || populations - adolescent</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - pediatric</t>
+          <t>populations - pediatric || populations - adolescent</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>renal || populations - pediatric</t>
+          <t>populations - pediatric || renal</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -2080,7 +2080,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>renal || populations - geriatric</t>
+          <t>populations - geriatric || renal</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - adult || renal || populations - pediatric || warnings</t>
+          <t>populations - adolescent || populations - pediatric || warnings || populations - adult || renal</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -2598,7 +2598,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - pediatric || warnings</t>
+          <t>populations - adolescent || warnings || populations - pediatric</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -3053,7 +3053,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>populations - pediatric || pregnancy</t>
+          <t>pregnancy || populations - pediatric</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - pediatric</t>
+          <t>populations - pediatric || populations - adolescent</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - adult || populations - geriatric || populations - pediatric</t>
+          <t>populations - geriatric || populations - adolescent || populations - adult || populations - pediatric</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -5206,7 +5206,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>populations - adult || populations - geriatric</t>
+          <t>populations - geriatric || populations - adult</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
@@ -5358,7 +5358,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I133" t="inlineStr"/>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I146" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I180" t="inlineStr"/>
